--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Year\data-visualization\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Year\data-visualization\Final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301CA324-A736-4D2D-9144-53A84792BA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79747F-3326-4F51-B155-EF917A338F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="1500" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{2886C796-B8B6-4CEF-A451-0240646D492A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{2886C796-B8B6-4CEF-A451-0240646D492A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="17" r:id="rId1"/>
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +533,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1076,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A716CA2-3F65-4E80-82EE-F929EB4CF8FB}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" zoomScale="138" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,22 +1168,21 @@
       <c r="C3" s="16">
         <v>193200.00000000003</v>
       </c>
-      <c r="D3" s="16">
-        <v>210</v>
-      </c>
-      <c r="E3" s="16">
-        <v>273</v>
+      <c r="D3" s="34">
+        <v>210000</v>
+      </c>
+      <c r="E3" s="35">
+        <v>273000</v>
       </c>
       <c r="F3" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G3" s="16">
-        <v>989</v>
+      <c r="G3" s="35">
+        <v>989000</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
@@ -1200,22 +1203,21 @@
       <c r="C4" s="16">
         <v>242760.00000000003</v>
       </c>
-      <c r="D4" s="16">
-        <v>231</v>
-      </c>
-      <c r="E4" s="16">
-        <v>221</v>
+      <c r="D4" s="34">
+        <v>231000</v>
+      </c>
+      <c r="E4" s="35">
+        <v>221000</v>
       </c>
       <c r="F4" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G4" s="16">
-        <v>1251</v>
+      <c r="G4" s="35">
+        <v>1251000</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -1236,22 +1238,21 @@
       <c r="C5" s="16">
         <v>257180.00000000003</v>
       </c>
-      <c r="D5" s="16">
-        <v>270</v>
-      </c>
-      <c r="E5" s="16">
-        <v>173</v>
+      <c r="D5" s="34">
+        <v>270000</v>
+      </c>
+      <c r="E5" s="35">
+        <v>173000</v>
       </c>
       <c r="F5" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G5" s="16">
-        <v>1345</v>
+      <c r="G5" s="35">
+        <v>1345000</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -1272,22 +1273,21 @@
       <c r="C6" s="16">
         <v>261800.00000000003</v>
       </c>
-      <c r="D6" s="16">
-        <v>263</v>
-      </c>
-      <c r="E6" s="16">
-        <v>193</v>
+      <c r="D6" s="34">
+        <v>263000</v>
+      </c>
+      <c r="E6" s="35">
+        <v>193000</v>
       </c>
       <c r="F6" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G6" s="16">
-        <v>1369</v>
+      <c r="G6" s="35">
+        <v>1369000</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -1308,22 +1308,21 @@
       <c r="C7" s="16">
         <v>253120.00000000003</v>
       </c>
-      <c r="D7" s="16">
-        <v>204</v>
-      </c>
-      <c r="E7" s="16">
-        <v>334</v>
+      <c r="D7" s="34">
+        <v>204000</v>
+      </c>
+      <c r="E7" s="35">
+        <v>334000</v>
       </c>
       <c r="F7" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G7" s="16">
-        <v>1254</v>
+      <c r="G7" s="35">
+        <v>1254000</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -1344,22 +1343,21 @@
       <c r="C8" s="16">
         <v>288960</v>
       </c>
-      <c r="D8" s="16">
-        <v>234</v>
-      </c>
-      <c r="E8" s="16">
-        <v>440</v>
+      <c r="D8" s="34">
+        <v>234000</v>
+      </c>
+      <c r="E8" s="35">
+        <v>440000</v>
       </c>
       <c r="F8" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G8" s="16">
-        <v>1332</v>
+      <c r="G8" s="35">
+        <v>1332000</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -1380,22 +1378,21 @@
       <c r="C9" s="16">
         <v>296100</v>
       </c>
-      <c r="D9" s="16">
-        <v>292</v>
-      </c>
-      <c r="E9" s="16">
-        <v>354</v>
+      <c r="D9" s="34">
+        <v>292000</v>
+      </c>
+      <c r="E9" s="35">
+        <v>354000</v>
       </c>
       <c r="F9" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G9" s="16">
-        <v>1424</v>
+      <c r="G9" s="35">
+        <v>1424000</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -1416,22 +1413,21 @@
       <c r="C10" s="16">
         <v>315280.00000000006</v>
       </c>
-      <c r="D10" s="16">
-        <v>340</v>
-      </c>
-      <c r="E10" s="16">
-        <v>225</v>
+      <c r="D10" s="34">
+        <v>340000</v>
+      </c>
+      <c r="E10" s="35">
+        <v>225000</v>
       </c>
       <c r="F10" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G10" s="16">
-        <v>1593</v>
+      <c r="G10" s="35">
+        <v>1593000</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -1452,22 +1448,21 @@
       <c r="C11" s="16">
         <v>289520</v>
       </c>
-      <c r="D11" s="16">
-        <v>217</v>
-      </c>
-      <c r="E11" s="16">
-        <v>439</v>
+      <c r="D11" s="34">
+        <v>217000</v>
+      </c>
+      <c r="E11" s="35">
+        <v>439000</v>
       </c>
       <c r="F11" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G11" s="16">
-        <v>1398</v>
+      <c r="G11" s="35">
+        <v>1398000</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
@@ -1488,22 +1483,21 @@
       <c r="C12" s="16">
         <v>374500.00000000006</v>
       </c>
-      <c r="D12" s="16">
-        <v>312</v>
-      </c>
-      <c r="E12" s="16">
-        <v>558</v>
+      <c r="D12" s="34">
+        <v>312000</v>
+      </c>
+      <c r="E12" s="35">
+        <v>558000</v>
       </c>
       <c r="F12" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G12" s="16">
-        <v>1670</v>
+      <c r="G12" s="35">
+        <v>1670000</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -1524,22 +1518,21 @@
       <c r="C13" s="16">
         <v>419720.00000000006</v>
       </c>
-      <c r="D13" s="16">
-        <v>333</v>
-      </c>
-      <c r="E13" s="16">
-        <v>839</v>
+      <c r="D13" s="34">
+        <v>333000</v>
+      </c>
+      <c r="E13" s="35">
+        <v>839000</v>
       </c>
       <c r="F13" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G13" s="16">
-        <v>1857</v>
+      <c r="G13" s="35">
+        <v>1857000</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
@@ -1560,22 +1553,21 @@
       <c r="C14" s="16">
         <v>402080.00000000006</v>
       </c>
-      <c r="D14" s="16">
-        <v>383</v>
-      </c>
-      <c r="E14" s="16">
-        <v>649</v>
+      <c r="D14" s="34">
+        <v>383000</v>
+      </c>
+      <c r="E14" s="35">
+        <v>649000</v>
       </c>
       <c r="F14" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G14" s="16">
-        <v>1810</v>
+      <c r="G14" s="35">
+        <v>1810000</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -1596,22 +1588,21 @@
       <c r="C15" s="16">
         <v>455000.00000000006</v>
       </c>
-      <c r="D15" s="16">
-        <v>242</v>
-      </c>
-      <c r="E15" s="16">
-        <v>910</v>
+      <c r="D15" s="34">
+        <v>242000</v>
+      </c>
+      <c r="E15" s="35">
+        <v>910000</v>
       </c>
       <c r="F15" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G15" s="16">
-        <v>2110</v>
+      <c r="G15" s="35">
+        <v>2110000</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
@@ -1632,22 +1623,21 @@
       <c r="C16" s="16">
         <v>558040</v>
       </c>
-      <c r="D16" s="16">
-        <v>333</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1035</v>
+      <c r="D16" s="34">
+        <v>333000</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1035000</v>
       </c>
       <c r="F16" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G16" s="16">
-        <v>2622</v>
+      <c r="G16" s="35">
+        <v>2622000</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
@@ -1668,22 +1658,21 @@
       <c r="C17" s="16">
         <v>612640.00000000012</v>
       </c>
-      <c r="D17" s="16">
-        <v>405</v>
-      </c>
-      <c r="E17" s="16">
-        <v>957</v>
+      <c r="D17" s="34">
+        <v>405000</v>
+      </c>
+      <c r="E17" s="35">
+        <v>957000</v>
       </c>
       <c r="F17" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G17" s="16">
-        <v>2980</v>
+      <c r="G17" s="35">
+        <v>2980000</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -1704,22 +1693,21 @@
       <c r="C18" s="16">
         <v>579600</v>
       </c>
-      <c r="D18" s="16">
-        <v>456</v>
-      </c>
-      <c r="E18" s="16">
-        <v>740</v>
+      <c r="D18" s="34">
+        <v>456000</v>
+      </c>
+      <c r="E18" s="35">
+        <v>740000</v>
       </c>
       <c r="F18" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G18" s="16">
-        <v>2868</v>
+      <c r="G18" s="35">
+        <v>2868000</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -1740,22 +1728,21 @@
       <c r="C19" s="16">
         <v>634900.00000000012</v>
       </c>
-      <c r="D19" s="16">
-        <v>342</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1111</v>
+      <c r="D19" s="34">
+        <v>342000</v>
+      </c>
+      <c r="E19" s="35">
+        <v>1111000</v>
       </c>
       <c r="F19" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G19" s="16">
-        <v>3026</v>
+      <c r="G19" s="35">
+        <v>3026000</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -1776,22 +1763,21 @@
       <c r="C20" s="16">
         <v>758800.00000000012</v>
       </c>
-      <c r="D20" s="16">
-        <v>419</v>
-      </c>
-      <c r="E20" s="16">
-        <v>1284</v>
+      <c r="D20" s="34">
+        <v>419000</v>
+      </c>
+      <c r="E20" s="35">
+        <v>1284000</v>
       </c>
       <c r="F20" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G20" s="16">
-        <v>3718</v>
+      <c r="G20" s="35">
+        <v>3718000</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -1812,22 +1798,21 @@
       <c r="C21" s="16">
         <v>797440.00000000012</v>
       </c>
-      <c r="D21" s="16">
-        <v>504</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1202</v>
+      <c r="D21" s="34">
+        <v>504000</v>
+      </c>
+      <c r="E21" s="35">
+        <v>1202000</v>
       </c>
       <c r="F21" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G21" s="16">
-        <v>4023</v>
+      <c r="G21" s="35">
+        <v>4023000</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -1848,22 +1833,21 @@
       <c r="C22" s="16">
         <v>836500.00000000012</v>
       </c>
-      <c r="D22" s="16">
-        <v>546</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1152</v>
+      <c r="D22" s="34">
+        <v>546000</v>
+      </c>
+      <c r="E22" s="35">
+        <v>1152000</v>
       </c>
       <c r="F22" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G22" s="16">
-        <v>4271</v>
+      <c r="G22" s="35">
+        <v>4271000</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
@@ -1884,22 +1868,21 @@
       <c r="C23" s="16">
         <v>822640.00000000012</v>
       </c>
-      <c r="D23" s="16">
-        <v>418</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1426</v>
+      <c r="D23" s="34">
+        <v>418000</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1426000</v>
       </c>
       <c r="F23" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G23" s="16">
-        <v>4076</v>
+      <c r="G23" s="35">
+        <v>4076000</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -1920,22 +1903,21 @@
       <c r="C24" s="16">
         <v>981400.00000000012</v>
       </c>
-      <c r="D24" s="16">
-        <v>625</v>
-      </c>
-      <c r="E24" s="16">
-        <v>1796</v>
+      <c r="D24" s="34">
+        <v>625000</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1796000</v>
       </c>
       <c r="F24" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G24" s="16">
-        <v>4589</v>
+      <c r="G24" s="35">
+        <v>4589000</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
@@ -1956,22 +1938,21 @@
       <c r="C25" s="16">
         <v>926520.00000000012</v>
       </c>
-      <c r="D25" s="16">
-        <v>601</v>
-      </c>
-      <c r="E25" s="16">
-        <v>1652</v>
+      <c r="D25" s="34">
+        <v>601000</v>
+      </c>
+      <c r="E25" s="35">
+        <v>1652000</v>
       </c>
       <c r="F25" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G25" s="16">
-        <v>4277</v>
+      <c r="G25" s="35">
+        <v>4277000</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -1992,22 +1973,21 @@
       <c r="C26" s="16">
         <v>987700.00000000012</v>
       </c>
-      <c r="D26" s="16">
-        <v>700</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1753</v>
+      <c r="D26" s="34">
+        <v>700000</v>
+      </c>
+      <c r="E26" s="35">
+        <v>1753000</v>
       </c>
       <c r="F26" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G26" s="16">
-        <v>4541</v>
+      <c r="G26" s="35">
+        <v>4541000</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2028,22 +2008,21 @@
       <c r="C27" s="2">
         <v>934695.86841008009</v>
       </c>
-      <c r="D27" s="2">
-        <v>568.45993757600002</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1838.206975153</v>
+      <c r="D27" s="34">
+        <v>568459.937576</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1838206.9751530001</v>
       </c>
       <c r="F27" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G27" s="2">
-        <v>4220.2374504950003</v>
+      <c r="G27" s="35">
+        <v>4220237.450495</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
@@ -2063,22 +2042,21 @@
       <c r="C28" s="2">
         <v>1129863.3739825601</v>
       </c>
-      <c r="D28" s="2">
-        <v>879.03298641699996</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2190.7586786540001</v>
+      <c r="D28" s="34">
+        <v>879032.98641699995</v>
+      </c>
+      <c r="E28" s="35">
+        <v>2190758.6786540002</v>
       </c>
       <c r="F28" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G28" s="2">
-        <v>4948.1049501340003</v>
+      <c r="G28" s="35">
+        <v>4948104.9501340007</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
@@ -2098,22 +2076,21 @@
       <c r="C29" s="2">
         <v>1123880.4745434001</v>
       </c>
-      <c r="D29" s="2">
-        <v>876.13073321000002</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2011.8547480140001</v>
+      <c r="D29" s="34">
+        <v>876130.73320999998</v>
+      </c>
+      <c r="E29" s="35">
+        <v>2011854.748014</v>
       </c>
       <c r="F29" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G29" s="2">
-        <v>5092.7786916069999</v>
+      <c r="G29" s="35">
+        <v>5092778.6916070003</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
@@ -2133,22 +2110,21 @@
       <c r="C30" s="2">
         <v>1144364.5808868001</v>
       </c>
-      <c r="D30" s="2">
-        <v>952.80797146299994</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1670.8578021210001</v>
+      <c r="D30" s="34">
+        <v>952807.97146299994</v>
+      </c>
+      <c r="E30" s="35">
+        <v>1670857.8021210001</v>
       </c>
       <c r="F30" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G30" s="2">
-        <v>5504.6725882379997</v>
+      <c r="G30" s="35">
+        <v>5504672.5882379999</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
@@ -2168,22 +2144,21 @@
       <c r="C31" s="2">
         <v>1074940.4886130402</v>
       </c>
-      <c r="D31" s="2">
-        <v>821.02085088499996</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1691.5105473460001</v>
+      <c r="D31" s="34">
+        <v>821020.85088499996</v>
+      </c>
+      <c r="E31" s="35">
+        <v>1691510.5473460001</v>
       </c>
       <c r="F31" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G31" s="2">
-        <v>5113.6411590480002</v>
+      <c r="G31" s="35">
+        <v>5113641.1590480004</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
@@ -2203,22 +2178,21 @@
       <c r="C32" s="2">
         <v>1292527.89984108</v>
       </c>
-      <c r="D32" s="2">
-        <v>1158.497483244</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1906.200955861</v>
+      <c r="D32" s="34">
+        <v>1158497.483244</v>
+      </c>
+      <c r="E32" s="35">
+        <v>1906200.9558610001</v>
       </c>
       <c r="F32" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G32" s="2">
-        <v>6067.0634309180004</v>
+      <c r="G32" s="35">
+        <v>6067063.4309180006</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
@@ -2238,22 +2212,21 @@
       <c r="C33" s="2">
         <v>1222401.9837302002</v>
       </c>
-      <c r="D33" s="2">
-        <v>1279.87268101</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1692.687762664</v>
+      <c r="D33" s="34">
+        <v>1279872.6810099999</v>
+      </c>
+      <c r="E33" s="35">
+        <v>1692687.762664</v>
       </c>
       <c r="F33" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G33" s="2">
-        <v>5702.8425218900002</v>
+      <c r="G33" s="35">
+        <v>5702842.5218900004</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="28"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
@@ -2273,22 +2246,21 @@
       <c r="C34" s="2">
         <v>1306899.5944603202</v>
       </c>
-      <c r="D34" s="2">
-        <v>1436.751699576</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2018.4419524550001</v>
+      <c r="D34" s="34">
+        <v>1436751.699576</v>
+      </c>
+      <c r="E34" s="35">
+        <v>2018441.952455</v>
       </c>
       <c r="F34" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G34" s="2">
-        <v>5784.9040226320003</v>
+      <c r="G34" s="35">
+        <v>5784904.022632</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="28"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
@@ -2308,22 +2280,21 @@
       <c r="C35" s="2">
         <v>1220245.02789952</v>
       </c>
-      <c r="D35" s="3">
-        <v>1150.436003</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1866.598526066</v>
+      <c r="D35" s="34">
+        <v>1150436.003</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1866598.5260659999</v>
       </c>
       <c r="F35" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G35" s="3">
-        <v>5607.0639369999999</v>
+      <c r="G35" s="35">
+        <v>5607063.9369999999</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
@@ -2343,22 +2314,21 @@
       <c r="C36" s="2">
         <v>1470015.4892192001</v>
       </c>
-      <c r="D36" s="3">
-        <v>1678.220323</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2621.1189164150001</v>
+      <c r="D36" s="34">
+        <v>1678220.3230000001</v>
+      </c>
+      <c r="E36" s="35">
+        <v>2621118.9164149999</v>
       </c>
       <c r="F36" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G36" s="3">
-        <v>6113.1146529999996</v>
+      <c r="G36" s="35">
+        <v>6113114.6529999999</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
@@ -2378,22 +2348,21 @@
       <c r="C37" s="2">
         <v>1476905.6990209201</v>
       </c>
-      <c r="D37" s="3">
-        <v>1665.909228</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2554.9106477539999</v>
+      <c r="D37" s="34">
+        <v>1665909.2279999999</v>
+      </c>
+      <c r="E37" s="35">
+        <v>2554910.647754</v>
       </c>
       <c r="F37" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G37" s="3">
-        <v>6199.2668979999999</v>
+      <c r="G37" s="35">
+        <v>6199266.898</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I37" s="28"/>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
@@ -2413,22 +2382,21 @@
       <c r="C38" s="2">
         <v>1553798.6958050202</v>
       </c>
-      <c r="D38" s="3">
-        <v>1753.941065</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2228.5982621859998</v>
+      <c r="D38" s="34">
+        <v>1753941.0649999999</v>
+      </c>
+      <c r="E38" s="35">
+        <v>2228598.2621859997</v>
       </c>
       <c r="F38" s="3">
         <v>9968.4210526315783</v>
       </c>
-      <c r="G38" s="3">
-        <v>6682.1746659999999</v>
+      <c r="G38" s="35">
+        <v>6682174.6660000002</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="28"/>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
@@ -2438,7 +2406,7 @@
       <c r="P38" s="28"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2448,22 +2416,21 @@
       <c r="C39" s="3">
         <v>1451781.8587017201</v>
       </c>
-      <c r="D39" s="3">
-        <v>1665.1601989999999</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2593.424063941</v>
+      <c r="D39" s="34">
+        <v>1665160.199</v>
+      </c>
+      <c r="E39" s="35">
+        <v>2593424.063941</v>
       </c>
       <c r="F39" s="3">
         <v>9950</v>
       </c>
-      <c r="G39" s="3">
-        <v>5993.4986570000001</v>
+      <c r="G39" s="35">
+        <v>5993498.6569999997</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="28"/>
@@ -2473,7 +2440,7 @@
       <c r="P39" s="28"/>
       <c r="Q39" s="27"/>
     </row>
-    <row r="40" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2483,22 +2450,21 @@
       <c r="C40" s="3">
         <v>1742878.2083890799</v>
       </c>
-      <c r="D40" s="3">
-        <v>1939.4560489999999</v>
-      </c>
-      <c r="E40" s="2">
-        <v>3373.2592199549999</v>
+      <c r="D40" s="34">
+        <v>1939456.0489999999</v>
+      </c>
+      <c r="E40" s="35">
+        <v>3373259.2199550001</v>
       </c>
       <c r="F40" s="3">
         <v>9950</v>
       </c>
-      <c r="G40" s="3">
-        <v>7076.4342280000001</v>
+      <c r="G40" s="35">
+        <v>7076434.2280000001</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
@@ -2508,7 +2474,7 @@
       <c r="P40" s="28"/>
       <c r="Q40" s="27"/>
     </row>
-    <row r="41" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>7</v>
       </c>
@@ -2518,22 +2484,21 @@
       <c r="C41" s="3">
         <v>1708656.5595722001</v>
       </c>
-      <c r="D41" s="3">
-        <v>1903.770503</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3048.0440793910002</v>
+      <c r="D41" s="34">
+        <v>1903770.503</v>
+      </c>
+      <c r="E41" s="35">
+        <v>3048044.0793910003</v>
       </c>
       <c r="F41" s="3">
         <v>9950</v>
       </c>
-      <c r="G41" s="3">
-        <v>7119.2609389999998</v>
+      <c r="G41" s="35">
+        <v>7119260.9389999993</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
@@ -2543,7 +2508,7 @@
       <c r="P41" s="28"/>
       <c r="Q41" s="27"/>
     </row>
-    <row r="42" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -2553,22 +2518,21 @@
       <c r="C42" s="3">
         <v>1653065.5049308401</v>
       </c>
-      <c r="D42" s="3">
-        <v>3192.4901129999998</v>
-      </c>
-      <c r="E42" s="2">
-        <v>2145.5632962479999</v>
+      <c r="D42" s="34">
+        <v>3192490.1129999999</v>
+      </c>
+      <c r="E42" s="35">
+        <v>2145563.2962480001</v>
       </c>
       <c r="F42" s="3">
         <v>9950</v>
       </c>
-      <c r="G42" s="3">
-        <v>6327.3157000000001</v>
+      <c r="G42" s="35">
+        <v>6327315.7000000002</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="28"/>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
@@ -2578,7 +2542,7 @@
       <c r="P42" s="28"/>
       <c r="Q42" s="27"/>
     </row>
-    <row r="43" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
@@ -2588,22 +2552,21 @@
       <c r="C43" s="3">
         <v>1686911.61694132</v>
       </c>
-      <c r="D43" s="3">
-        <v>2303.3897499999998</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3470.3052761260001</v>
+      <c r="D43" s="34">
+        <v>2303389.75</v>
+      </c>
+      <c r="E43" s="35">
+        <v>3470305.2761260001</v>
       </c>
       <c r="F43" s="3">
         <v>9950</v>
       </c>
-      <c r="G43" s="3">
-        <v>6230.237376</v>
+      <c r="G43" s="35">
+        <v>6230237.3760000002</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I43" s="28"/>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
@@ -2613,7 +2576,7 @@
       <c r="P43" s="28"/>
       <c r="Q43" s="27"/>
     </row>
-    <row r="44" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>10</v>
       </c>
@@ -2623,22 +2586,21 @@
       <c r="C44" s="3">
         <v>1868756.57012674</v>
       </c>
-      <c r="D44" s="3">
-        <v>3053.6252450000002</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3443.226703496</v>
+      <c r="D44" s="34">
+        <v>3053625.2450000001</v>
+      </c>
+      <c r="E44" s="35">
+        <v>3443226.7034959998</v>
       </c>
       <c r="F44" s="3">
         <v>9950</v>
       </c>
-      <c r="G44" s="3">
-        <v>6807.419328</v>
+      <c r="G44" s="35">
+        <v>6807419.3279999997</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="28"/>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
@@ -2648,7 +2610,7 @@
       <c r="P44" s="28"/>
       <c r="Q44" s="27"/>
     </row>
-    <row r="45" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>11</v>
       </c>
@@ -2658,22 +2620,21 @@
       <c r="C45" s="3">
         <v>1861030.8948476003</v>
       </c>
-      <c r="D45" s="3">
-        <v>2980.5156900000002</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3228.3965969830001</v>
+      <c r="D45" s="34">
+        <v>2980515.6900000004</v>
+      </c>
+      <c r="E45" s="35">
+        <v>3228396.5969830002</v>
       </c>
       <c r="F45" s="3">
         <v>9950</v>
       </c>
-      <c r="G45" s="3">
-        <v>7022.7784959999999</v>
+      <c r="G45" s="35">
+        <v>7022778.4960000003</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I45" s="28"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
@@ -2683,7 +2644,7 @@
       <c r="P45" s="28"/>
       <c r="Q45" s="27"/>
     </row>
-    <row r="46" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -2693,22 +2654,21 @@
       <c r="C46" s="3">
         <v>1729051.5419996001</v>
       </c>
-      <c r="D46" s="3">
-        <v>3200.002986</v>
-      </c>
-      <c r="E46" s="2">
-        <v>2084.48961104</v>
+      <c r="D46" s="34">
+        <v>3200002.986</v>
+      </c>
+      <c r="E46" s="35">
+        <v>2084489.6110400001</v>
       </c>
       <c r="F46" s="3">
         <v>9950</v>
       </c>
-      <c r="G46" s="3">
-        <v>6746.4598660000001</v>
+      <c r="G46" s="35">
+        <v>6746459.8660000004</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I46" s="28"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
@@ -2718,7 +2678,7 @@
       <c r="P46" s="28"/>
       <c r="Q46" s="27"/>
     </row>
-    <row r="47" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2728,22 +2688,21 @@
       <c r="C47" s="3">
         <v>1696870.2829400001</v>
       </c>
-      <c r="D47" s="3">
-        <v>2318.536685</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3112.9480051189998</v>
+      <c r="D47" s="34">
+        <v>2318536.6850000001</v>
+      </c>
+      <c r="E47" s="35">
+        <v>3112948.0051189996</v>
       </c>
       <c r="F47" s="3">
         <v>9950</v>
       </c>
-      <c r="G47" s="3">
-        <v>6633.808704</v>
+      <c r="G47" s="35">
+        <v>6633808.7039999999</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
@@ -2753,7 +2712,7 @@
       <c r="P47" s="28"/>
       <c r="Q47" s="27"/>
     </row>
-    <row r="48" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>14</v>
       </c>
@@ -2763,22 +2722,21 @@
       <c r="C48" s="3">
         <v>1918347.2856800002</v>
       </c>
-      <c r="D48" s="3">
-        <v>3176.1086599999999</v>
-      </c>
-      <c r="E48" s="2">
-        <v>3172.703</v>
+      <c r="D48" s="34">
+        <v>3176108.6599999997</v>
+      </c>
+      <c r="E48" s="35">
+        <v>3172703</v>
       </c>
       <c r="F48" s="3">
         <v>9950</v>
       </c>
-      <c r="G48" s="3">
-        <v>7233.8697700000002</v>
+      <c r="G48" s="35">
+        <v>7233869.7700000005</v>
       </c>
       <c r="H48" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="28"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
       <c r="L48" s="28"/>
@@ -2788,7 +2746,7 @@
       <c r="P48" s="28"/>
       <c r="Q48" s="27"/>
     </row>
-    <row r="49" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>15</v>
       </c>
@@ -2798,22 +2756,21 @@
       <c r="C49" s="3">
         <v>1922936.4399208601</v>
       </c>
-      <c r="D49" s="3">
-        <v>3410.5588029999999</v>
-      </c>
-      <c r="E49" s="2">
-        <v>2953.826796158</v>
+      <c r="D49" s="34">
+        <v>3410558.8029999998</v>
+      </c>
+      <c r="E49" s="35">
+        <v>2953826.7961579999</v>
       </c>
       <c r="F49" s="3">
         <v>9950</v>
       </c>
-      <c r="G49" s="3">
-        <v>7241.7433870000004</v>
+      <c r="G49" s="35">
+        <v>7241743.3870000001</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I49" s="28"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
       <c r="L49" s="28"/>
@@ -2823,7 +2780,7 @@
       <c r="P49" s="28"/>
       <c r="Q49" s="27"/>
     </row>
-    <row r="50" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>16</v>
       </c>
@@ -2833,22 +2790,21 @@
       <c r="C50" s="3">
         <v>1820518.9873598001</v>
       </c>
-      <c r="D50" s="3">
-        <v>3360.7327580000001</v>
-      </c>
-      <c r="E50" s="2">
-        <v>2637.0356215070001</v>
+      <c r="D50" s="34">
+        <v>3360732.7579999999</v>
+      </c>
+      <c r="E50" s="35">
+        <v>2637035.6215070002</v>
       </c>
       <c r="F50" s="3">
         <v>9950</v>
       </c>
-      <c r="G50" s="3">
-        <v>6841.1216400000003</v>
+      <c r="G50" s="35">
+        <v>6841121.6400000006</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="28"/>
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
       <c r="L50" s="28"/>
@@ -2858,7 +2814,7 @@
       <c r="P50" s="28"/>
       <c r="Q50" s="27"/>
     </row>
-    <row r="51" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>17</v>
       </c>
@@ -2868,22 +2824,21 @@
       <c r="C51" s="3">
         <v>1846502.0402929804</v>
       </c>
-      <c r="D51" s="3">
-        <v>2670.4364449999998</v>
-      </c>
-      <c r="E51" s="2">
-        <v>3341.23530493</v>
+      <c r="D51" s="34">
+        <v>2670436.4449999998</v>
+      </c>
+      <c r="E51" s="35">
+        <v>3341235.3049300001</v>
       </c>
       <c r="F51" s="3">
         <v>9950</v>
       </c>
-      <c r="G51" s="3">
-        <v>7034.2977780000001</v>
+      <c r="G51" s="35">
+        <v>7034297.7779999999</v>
       </c>
       <c r="H51" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I51" s="28"/>
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
       <c r="L51" s="28"/>
@@ -2893,7 +2848,7 @@
       <c r="P51" s="28"/>
       <c r="Q51" s="27"/>
     </row>
-    <row r="52" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>18</v>
       </c>
@@ -2903,22 +2858,21 @@
       <c r="C52" s="3">
         <v>2043854.4769659801</v>
       </c>
-      <c r="D52" s="3">
-        <v>3330.1990989999999</v>
-      </c>
-      <c r="E52" s="2">
-        <v>3516.775668232</v>
+      <c r="D52" s="34">
+        <v>3330199.0989999999</v>
+      </c>
+      <c r="E52" s="35">
+        <v>3516775.668232</v>
       </c>
       <c r="F52" s="3">
         <v>9950</v>
       </c>
-      <c r="G52" s="3">
-        <v>7585.0150009999998</v>
+      <c r="G52" s="35">
+        <v>7585015.0010000002</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="28"/>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
       <c r="L52" s="28"/>
@@ -2928,7 +2882,7 @@
       <c r="P52" s="28"/>
       <c r="Q52" s="27"/>
     </row>
-    <row r="53" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>19</v>
       </c>
@@ -2938,22 +2892,21 @@
       <c r="C53" s="3">
         <v>2000726.0625825203</v>
       </c>
-      <c r="D53" s="3">
-        <v>3291.6608820000001</v>
-      </c>
-      <c r="E53" s="2">
-        <v>3265.1270469279998</v>
+      <c r="D53" s="34">
+        <v>3291660.8820000002</v>
+      </c>
+      <c r="E53" s="35">
+        <v>3265127.0469279997</v>
       </c>
       <c r="F53" s="3">
         <v>9950</v>
       </c>
-      <c r="G53" s="3">
-        <v>7567.9344769999998</v>
+      <c r="G53" s="35">
+        <v>7567934.477</v>
       </c>
       <c r="H53" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="28"/>
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
       <c r="L53" s="28"/>
@@ -2963,7 +2916,7 @@
       <c r="P53" s="28"/>
       <c r="Q53" s="27"/>
     </row>
-    <row r="54" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -2973,22 +2926,21 @@
       <c r="C54" s="3">
         <v>1993454.6069426802</v>
       </c>
-      <c r="D54" s="3">
-        <v>3701.158128</v>
-      </c>
-      <c r="E54" s="2">
-        <v>2673.9520952819998</v>
+      <c r="D54" s="34">
+        <v>3701158.128</v>
+      </c>
+      <c r="E54" s="35">
+        <v>2673952.095282</v>
       </c>
       <c r="F54" s="3">
         <v>9950</v>
       </c>
-      <c r="G54" s="3">
-        <v>7558.6588570000004</v>
+      <c r="G54" s="35">
+        <v>7558658.8570000008</v>
       </c>
       <c r="H54" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I54" s="28"/>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
       <c r="L54" s="28"/>
@@ -2998,7 +2950,7 @@
       <c r="P54" s="28"/>
       <c r="Q54" s="27"/>
     </row>
-    <row r="55" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>21</v>
       </c>
@@ -3008,22 +2960,21 @@
       <c r="C55" s="3">
         <v>1981433.9935005002</v>
       </c>
-      <c r="D55" s="3">
-        <v>3004.1417540000002</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1838.206975153</v>
+      <c r="D55" s="34">
+        <v>3004141.7540000002</v>
+      </c>
+      <c r="E55" s="35">
+        <v>1838206.9751530001</v>
       </c>
       <c r="F55" s="3">
         <v>9950</v>
       </c>
-      <c r="G55" s="3">
-        <v>7547.2883460000003</v>
+      <c r="G55" s="35">
+        <v>7547288.3459999999</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="28"/>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
       <c r="L55" s="28"/>
@@ -3033,7 +2984,7 @@
       <c r="P55" s="28"/>
       <c r="Q55" s="27"/>
     </row>
-    <row r="56" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>22</v>
       </c>
@@ -3043,22 +2994,21 @@
       <c r="C56" s="3">
         <v>2169332.72623186</v>
       </c>
-      <c r="D56" s="3">
-        <v>3383.3226610000002</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2190.7586786540001</v>
+      <c r="D56" s="34">
+        <v>3383322.6610000003</v>
+      </c>
+      <c r="E56" s="35">
+        <v>2190758.6786540002</v>
       </c>
       <c r="F56" s="3">
         <v>9950</v>
       </c>
-      <c r="G56" s="3">
-        <v>8357.3391620000002</v>
+      <c r="G56" s="35">
+        <v>8357339.1620000005</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I56" s="28"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
@@ -3068,7 +3018,7 @@
       <c r="P56" s="28"/>
       <c r="Q56" s="27"/>
     </row>
-    <row r="57" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>23</v>
       </c>
@@ -3078,22 +3028,21 @@
       <c r="C57" s="3">
         <v>2178842.1197520602</v>
       </c>
-      <c r="D57" s="3">
-        <v>3284.4877959999999</v>
-      </c>
-      <c r="E57" s="2">
-        <v>2011.8547480140001</v>
+      <c r="D57" s="34">
+        <v>3284487.7960000001</v>
+      </c>
+      <c r="E57" s="35">
+        <v>2011854.748014</v>
       </c>
       <c r="F57" s="3">
         <v>9950</v>
       </c>
-      <c r="G57" s="3">
-        <v>8296.4145169999993</v>
+      <c r="G57" s="35">
+        <v>8296414.5169999991</v>
       </c>
       <c r="H57" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="28"/>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
       <c r="L57" s="28"/>
@@ -3103,7 +3052,7 @@
       <c r="P57" s="28"/>
       <c r="Q57" s="27"/>
     </row>
-    <row r="58" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>24</v>
       </c>
@@ -3113,22 +3062,21 @@
       <c r="C58" s="3">
         <v>2019471.2320999999</v>
       </c>
-      <c r="D58" s="3">
-        <v>3775.5404199999998</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1670.8578021210001</v>
+      <c r="D58" s="34">
+        <v>3775540.42</v>
+      </c>
+      <c r="E58" s="35">
+        <v>1670857.8021210001</v>
       </c>
       <c r="F58" s="3">
         <v>9950</v>
       </c>
-      <c r="G58" s="3">
-        <v>7766.6208130000005</v>
+      <c r="G58" s="35">
+        <v>7766620.8130000001</v>
       </c>
       <c r="H58" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I58" s="28"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
       <c r="L58" s="28"/>
@@ -3165,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADC940B-83F8-4EBA-894B-8761921BF1BA}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
